--- a/Code/Results/Cases/Case_0_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013768766018302</v>
+        <v>1.067451379478658</v>
       </c>
       <c r="D2">
-        <v>1.022007495431325</v>
+        <v>1.070097477037803</v>
       </c>
       <c r="E2">
-        <v>1.025661649275037</v>
+        <v>1.071374243613339</v>
       </c>
       <c r="F2">
-        <v>1.03231069012039</v>
+        <v>1.07988788374424</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047695887506093</v>
+        <v>1.044889200708512</v>
       </c>
       <c r="J2">
-        <v>1.035545312502816</v>
+        <v>1.072396211224438</v>
       </c>
       <c r="K2">
-        <v>1.033168514126462</v>
+        <v>1.072798223469824</v>
       </c>
       <c r="L2">
-        <v>1.036774688211699</v>
+        <v>1.074071586980101</v>
       </c>
       <c r="M2">
-        <v>1.043337515657456</v>
+        <v>1.082562757274905</v>
       </c>
       <c r="N2">
-        <v>1.037015905625278</v>
+        <v>1.073919136849941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022532835717151</v>
+        <v>1.069150547657915</v>
       </c>
       <c r="D3">
-        <v>1.030112956146453</v>
+        <v>1.071714694440101</v>
       </c>
       <c r="E3">
-        <v>1.033240934814503</v>
+        <v>1.072887730851513</v>
       </c>
       <c r="F3">
-        <v>1.040257039164363</v>
+        <v>1.081483075558775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050206253505125</v>
+        <v>1.045273718352527</v>
       </c>
       <c r="J3">
-        <v>1.042427527967756</v>
+        <v>1.073748229705646</v>
       </c>
       <c r="K3">
-        <v>1.040374505710993</v>
+        <v>1.074229755469942</v>
       </c>
       <c r="L3">
-        <v>1.043465449741262</v>
+        <v>1.075399894779469</v>
       </c>
       <c r="M3">
-        <v>1.050399486246264</v>
+        <v>1.083974217330171</v>
       </c>
       <c r="N3">
-        <v>1.043907894625579</v>
+        <v>1.075273075352471</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028011614598596</v>
+        <v>1.07024763503335</v>
       </c>
       <c r="D4">
-        <v>1.035185204455444</v>
+        <v>1.072759058058904</v>
       </c>
       <c r="E4">
-        <v>1.037985151079686</v>
+        <v>1.073865064770241</v>
       </c>
       <c r="F4">
-        <v>1.045232209747764</v>
+        <v>1.082513339489722</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05176110545063</v>
+        <v>1.045520103889545</v>
       </c>
       <c r="J4">
-        <v>1.046724943298138</v>
+        <v>1.07462033758161</v>
       </c>
       <c r="K4">
-        <v>1.044876740643547</v>
+        <v>1.075153484243903</v>
       </c>
       <c r="L4">
-        <v>1.047645764903752</v>
+        <v>1.076256898880602</v>
       </c>
       <c r="M4">
-        <v>1.05481373141526</v>
+        <v>1.084885100977442</v>
       </c>
       <c r="N4">
-        <v>1.048211412778651</v>
+        <v>1.076146421721651</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030271852141764</v>
+        <v>1.070708291400247</v>
       </c>
       <c r="D5">
-        <v>1.037278888045235</v>
+        <v>1.073197620747663</v>
       </c>
       <c r="E5">
-        <v>1.039943696649005</v>
+        <v>1.074275468912099</v>
       </c>
       <c r="F5">
-        <v>1.047286386315287</v>
+        <v>1.082946010637905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052399003121141</v>
+        <v>1.045623107621272</v>
       </c>
       <c r="J5">
-        <v>1.048496553869475</v>
+        <v>1.074986326054988</v>
       </c>
       <c r="K5">
-        <v>1.046733424569596</v>
+        <v>1.075541215317997</v>
       </c>
       <c r="L5">
-        <v>1.049369671894508</v>
+        <v>1.076616594427477</v>
       </c>
       <c r="M5">
-        <v>1.056634582436035</v>
+        <v>1.085267465713584</v>
       </c>
       <c r="N5">
-        <v>1.049985539240206</v>
+        <v>1.076512929940641</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030648912744581</v>
+        <v>1.07078560520406</v>
       </c>
       <c r="D6">
-        <v>1.037628229232118</v>
+        <v>1.073271229072656</v>
       </c>
       <c r="E6">
-        <v>1.040270504068919</v>
+        <v>1.074344350481441</v>
       </c>
       <c r="F6">
-        <v>1.047629167814553</v>
+        <v>1.083018631841976</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052505208701919</v>
+        <v>1.045640368676892</v>
       </c>
       <c r="J6">
-        <v>1.048792023637577</v>
+        <v>1.07504773955404</v>
       </c>
       <c r="K6">
-        <v>1.047043120388131</v>
+        <v>1.075606281921402</v>
       </c>
       <c r="L6">
-        <v>1.049657218791602</v>
+        <v>1.07667695462911</v>
       </c>
       <c r="M6">
-        <v>1.05693832729612</v>
+        <v>1.085331633252266</v>
       </c>
       <c r="N6">
-        <v>1.050281428609269</v>
+        <v>1.076574430653906</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028041981426226</v>
+        <v>1.070253792526133</v>
       </c>
       <c r="D7">
-        <v>1.035213329115641</v>
+        <v>1.072764920056201</v>
       </c>
       <c r="E7">
-        <v>1.038011459410882</v>
+        <v>1.073870550431478</v>
       </c>
       <c r="F7">
-        <v>1.045259801514971</v>
+        <v>1.08251912262331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051769689902224</v>
+        <v>1.045521482492013</v>
       </c>
       <c r="J7">
-        <v>1.046748750405523</v>
+        <v>1.074625230460864</v>
       </c>
       <c r="K7">
-        <v>1.044901688452452</v>
+        <v>1.075158667486516</v>
       </c>
       <c r="L7">
-        <v>1.047668928722736</v>
+        <v>1.07626170745125</v>
       </c>
       <c r="M7">
-        <v>1.05483819598126</v>
+        <v>1.084890212382729</v>
       </c>
       <c r="N7">
-        <v>1.048235253694858</v>
+        <v>1.076151321549355</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016772292527867</v>
+        <v>1.068026123358762</v>
       </c>
       <c r="D8">
-        <v>1.024784154317921</v>
+        <v>1.070644461529055</v>
       </c>
       <c r="E8">
-        <v>1.02825777501095</v>
+        <v>1.071886152658066</v>
       </c>
       <c r="F8">
-        <v>1.035032293712459</v>
+        <v>1.080427392738543</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048559231752419</v>
+        <v>1.045019653985815</v>
       </c>
       <c r="J8">
-        <v>1.037904906192135</v>
+        <v>1.072853705217672</v>
       </c>
       <c r="K8">
-        <v>1.035638555895992</v>
+        <v>1.073282554399747</v>
       </c>
       <c r="L8">
-        <v>1.039068111828247</v>
+        <v>1.074521018171667</v>
       </c>
       <c r="M8">
-        <v>1.045757752194639</v>
+        <v>1.083040274980436</v>
       </c>
       <c r="N8">
-        <v>1.039378850208285</v>
+        <v>1.074377280537121</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9952909280770114</v>
+        <v>1.064081831432633</v>
       </c>
       <c r="D9">
-        <v>1.00495224999706</v>
+        <v>1.0668914768118</v>
       </c>
       <c r="E9">
-        <v>1.00972226521123</v>
+        <v>1.068373661969892</v>
       </c>
       <c r="F9">
-        <v>1.015606098479743</v>
+        <v>1.076726220884538</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04232468420744</v>
+        <v>1.044116659085397</v>
       </c>
       <c r="J9">
-        <v>1.021011078776469</v>
+        <v>1.069710630851688</v>
       </c>
       <c r="K9">
-        <v>1.01796548814405</v>
+        <v>1.069956469618079</v>
       </c>
       <c r="L9">
-        <v>1.022659550496513</v>
+        <v>1.071434127464825</v>
       </c>
       <c r="M9">
-        <v>1.028450952077205</v>
+        <v>1.079761427591186</v>
       </c>
       <c r="N9">
-        <v>1.022461031619939</v>
+        <v>1.071229742645022</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9796336585709904</v>
+        <v>1.061438834366485</v>
       </c>
       <c r="D10">
-        <v>0.990537491459083</v>
+        <v>1.064377708906285</v>
       </c>
       <c r="E10">
-        <v>0.9962608284998066</v>
+        <v>1.066020779956245</v>
       </c>
       <c r="F10">
-        <v>1.001504485653835</v>
+        <v>1.074247826079461</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037707537016102</v>
+        <v>1.043501870772763</v>
       </c>
       <c r="J10">
-        <v>1.008679290525826</v>
+        <v>1.067600217765132</v>
       </c>
       <c r="K10">
-        <v>1.005079722353184</v>
+        <v>1.067724889738581</v>
       </c>
       <c r="L10">
-        <v>1.01069792463408</v>
+        <v>1.069362438726926</v>
       </c>
       <c r="M10">
-        <v>1.015846629175013</v>
+        <v>1.077562113978871</v>
       </c>
       <c r="N10">
-        <v>1.010111730815505</v>
+        <v>1.069116332529815</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9724695708346804</v>
+        <v>1.060291015499069</v>
       </c>
       <c r="D11">
-        <v>0.9839536176465052</v>
+        <v>1.063286267698655</v>
       </c>
       <c r="E11">
-        <v>0.9901157931765719</v>
+        <v>1.0649991496226</v>
       </c>
       <c r="F11">
-        <v>0.9950688138155753</v>
+        <v>1.073171905976363</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035579120942096</v>
+        <v>1.043232578723023</v>
       </c>
       <c r="J11">
-        <v>1.003034255005538</v>
+        <v>1.066682679933749</v>
       </c>
       <c r="K11">
-        <v>0.9991846252598773</v>
+        <v>1.06675507905504</v>
       </c>
       <c r="L11">
-        <v>1.005226549859555</v>
+        <v>1.068461975871185</v>
       </c>
       <c r="M11">
-        <v>1.010084328124316</v>
+        <v>1.076606464625009</v>
       </c>
       <c r="N11">
-        <v>1.004458678697283</v>
+        <v>1.068197491689467</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9697438255274012</v>
+        <v>1.059864140742476</v>
       </c>
       <c r="D12">
-        <v>0.9814505985490913</v>
+        <v>1.062880398928602</v>
       </c>
       <c r="E12">
-        <v>0.9877802014456247</v>
+        <v>1.064619234851172</v>
       </c>
       <c r="F12">
-        <v>0.9926229989744589</v>
+        <v>1.072771833735838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034767092056853</v>
+        <v>1.043132084034106</v>
       </c>
       <c r="J12">
-        <v>1.000886268332812</v>
+        <v>1.066341295166106</v>
       </c>
       <c r="K12">
-        <v>0.9969420184188584</v>
+        <v>1.066394306366006</v>
       </c>
       <c r="L12">
-        <v>1.003145318804393</v>
+        <v>1.06812698016658</v>
       </c>
       <c r="M12">
-        <v>1.007892908649404</v>
+        <v>1.076250981114761</v>
       </c>
       <c r="N12">
-        <v>1.002307641637104</v>
+        <v>1.067855622116298</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9703315586797479</v>
+        <v>1.059955730774659</v>
       </c>
       <c r="D13">
-        <v>0.981990214221906</v>
+        <v>1.062967480146158</v>
       </c>
       <c r="E13">
-        <v>0.9882836940190337</v>
+        <v>1.06470074778236</v>
       </c>
       <c r="F13">
-        <v>0.9931502418604373</v>
+        <v>1.072857670151978</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034942281671939</v>
+        <v>1.043153661715203</v>
       </c>
       <c r="J13">
-        <v>1.001349429308338</v>
+        <v>1.066414549365351</v>
       </c>
       <c r="K13">
-        <v>0.9974255579977428</v>
+        <v>1.066471718056281</v>
       </c>
       <c r="L13">
-        <v>1.003594054306068</v>
+        <v>1.068198861770358</v>
       </c>
       <c r="M13">
-        <v>1.008365380183073</v>
+        <v>1.076327256936279</v>
       </c>
       <c r="N13">
-        <v>1.002771460354341</v>
+        <v>1.067928980344908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9722456237789138</v>
+        <v>1.060255740671729</v>
       </c>
       <c r="D14">
-        <v>0.983747928543709</v>
+        <v>1.063252727901081</v>
       </c>
       <c r="E14">
-        <v>0.9899238501606304</v>
+        <v>1.064967754711996</v>
       </c>
       <c r="F14">
-        <v>0.994867807575147</v>
+        <v>1.073138844679698</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035512448752574</v>
+        <v>1.043224281364674</v>
       </c>
       <c r="J14">
-        <v>1.002857779476368</v>
+        <v>1.066654472668764</v>
       </c>
       <c r="K14">
-        <v>0.9990003651313346</v>
+        <v>1.066725268598931</v>
       </c>
       <c r="L14">
-        <v>1.005055544919794</v>
+        <v>1.068434295773319</v>
       </c>
       <c r="M14">
-        <v>1.009904259782208</v>
+        <v>1.076577090778879</v>
       </c>
       <c r="N14">
-        <v>1.00428195255262</v>
+        <v>1.068169244366932</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.973416143524414</v>
+        <v>1.060440516810347</v>
       </c>
       <c r="D15">
-        <v>0.984823099411133</v>
+        <v>1.06342841723402</v>
       </c>
       <c r="E15">
-        <v>0.9909271924937396</v>
+        <v>1.065132208370635</v>
       </c>
       <c r="F15">
-        <v>0.9959185358371089</v>
+        <v>1.073312028528672</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035860839758351</v>
+        <v>1.04326773036939</v>
       </c>
       <c r="J15">
-        <v>1.003780169493955</v>
+        <v>1.066802221387935</v>
       </c>
       <c r="K15">
-        <v>0.9999634646663762</v>
+        <v>1.066881417277842</v>
       </c>
       <c r="L15">
-        <v>1.00594936933216</v>
+        <v>1.068579284684509</v>
       </c>
       <c r="M15">
-        <v>1.010845477025687</v>
+        <v>1.076730953338428</v>
       </c>
       <c r="N15">
-        <v>1.005205652469831</v>
+        <v>1.06831720290623</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9801004512712711</v>
+        <v>1.06151493872634</v>
       </c>
       <c r="D16">
-        <v>0.9909667369664744</v>
+        <v>1.064450080666139</v>
       </c>
       <c r="E16">
-        <v>0.9966615400075437</v>
+        <v>1.066088521778084</v>
       </c>
       <c r="F16">
-        <v>1.001924182323325</v>
+        <v>1.074319172110873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037845905517209</v>
+        <v>1.043519677451929</v>
       </c>
       <c r="J16">
-        <v>1.00904706805069</v>
+        <v>1.067661032417341</v>
       </c>
       <c r="K16">
-        <v>1.00546386423997</v>
+        <v>1.067789177596973</v>
       </c>
       <c r="L16">
-        <v>1.011054478288539</v>
+        <v>1.069422126683423</v>
       </c>
       <c r="M16">
-        <v>1.016222205884393</v>
+        <v>1.07762546603936</v>
       </c>
       <c r="N16">
-        <v>1.010480030626639</v>
+        <v>1.069177233545806</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9841858882517563</v>
+        <v>1.06218797850155</v>
       </c>
       <c r="D17">
-        <v>0.994724889171694</v>
+        <v>1.065090140182921</v>
       </c>
       <c r="E17">
-        <v>1.00017026125318</v>
+        <v>1.066687628916396</v>
       </c>
       <c r="F17">
-        <v>1.005599321575731</v>
+        <v>1.074950178835594</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03905516954004</v>
+        <v>1.043676888402646</v>
       </c>
       <c r="J17">
-        <v>1.012265643439188</v>
+        <v>1.06819873867733</v>
       </c>
       <c r="K17">
-        <v>1.008826046722284</v>
+        <v>1.068357639833858</v>
       </c>
       <c r="L17">
-        <v>1.014175305831442</v>
+        <v>1.069949898572486</v>
       </c>
       <c r="M17">
-        <v>1.019509881548925</v>
+        <v>1.078185669575975</v>
       </c>
       <c r="N17">
-        <v>1.013703176761364</v>
+        <v>1.069715703410359</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9865322919647556</v>
+        <v>1.062580225783435</v>
       </c>
       <c r="D18">
-        <v>0.9968843983932439</v>
+        <v>1.065463191107527</v>
       </c>
       <c r="E18">
-        <v>1.002186755646691</v>
+        <v>1.067036807040591</v>
       </c>
       <c r="F18">
-        <v>1.007711607221319</v>
+        <v>1.075317969092509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039748204459363</v>
+        <v>1.043768289552184</v>
       </c>
       <c r="J18">
-        <v>1.01411392908699</v>
+        <v>1.068512016026414</v>
       </c>
       <c r="K18">
-        <v>1.010757128768882</v>
+        <v>1.068688875294423</v>
       </c>
       <c r="L18">
-        <v>1.015967849296929</v>
+        <v>1.070257410964056</v>
       </c>
       <c r="M18">
-        <v>1.021398542825836</v>
+        <v>1.078512106156795</v>
       </c>
       <c r="N18">
-        <v>1.015554087186786</v>
+        <v>1.070029425649213</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9873263454135286</v>
+        <v>1.062713917233339</v>
       </c>
       <c r="D19">
-        <v>0.9976153811129933</v>
+        <v>1.065590343910984</v>
       </c>
       <c r="E19">
-        <v>1.002869379564139</v>
+        <v>1.067155822180567</v>
       </c>
       <c r="F19">
-        <v>1.008426683700629</v>
+        <v>1.075443331462884</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039982480243025</v>
+        <v>1.043799404674626</v>
       </c>
       <c r="J19">
-        <v>1.014739365554723</v>
+        <v>1.068618775216617</v>
       </c>
       <c r="K19">
-        <v>1.011410638324634</v>
+        <v>1.068801760917797</v>
       </c>
       <c r="L19">
-        <v>1.01657448832966</v>
+        <v>1.070362209456493</v>
       </c>
       <c r="M19">
-        <v>1.022037758009465</v>
+        <v>1.078623358571446</v>
       </c>
       <c r="N19">
-        <v>1.016180411846043</v>
+        <v>1.070136336449711</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9837513877743651</v>
+        <v>1.062115801475197</v>
       </c>
       <c r="D20">
-        <v>0.9943250832000279</v>
+        <v>1.065021497428497</v>
       </c>
       <c r="E20">
-        <v>0.9997969575578136</v>
+        <v>1.066623378505117</v>
       </c>
       <c r="F20">
-        <v>1.005208296617351</v>
+        <v>1.074882505320886</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038926713708951</v>
+        <v>1.043660051940885</v>
       </c>
       <c r="J20">
-        <v>1.011923361572229</v>
+        <v>1.068141084962549</v>
       </c>
       <c r="K20">
-        <v>1.008468458593162</v>
+        <v>1.068296684366106</v>
       </c>
       <c r="L20">
-        <v>1.013843378162012</v>
+        <v>1.069893307656983</v>
       </c>
       <c r="M20">
-        <v>1.019160178496854</v>
+        <v>1.078125598294086</v>
       </c>
       <c r="N20">
-        <v>1.013360408814893</v>
+        <v>1.069657967820691</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9716838265965644</v>
+        <v>1.060167409816035</v>
       </c>
       <c r="D21">
-        <v>0.9832319659734448</v>
+        <v>1.063168742326012</v>
       </c>
       <c r="E21">
-        <v>0.9894423788825989</v>
+        <v>1.064889139957385</v>
       </c>
       <c r="F21">
-        <v>0.9943636059199623</v>
+        <v>1.073056057699602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035345158684597</v>
+        <v>1.043203498580908</v>
       </c>
       <c r="J21">
-        <v>1.002415067577104</v>
+        <v>1.06658383707945</v>
       </c>
       <c r="K21">
-        <v>0.9985381330685076</v>
+        <v>1.066650619343238</v>
       </c>
       <c r="L21">
-        <v>1.004626567723427</v>
+        <v>1.06836498087892</v>
       </c>
       <c r="M21">
-        <v>1.009452554144955</v>
+        <v>1.076503535193198</v>
       </c>
       <c r="N21">
-        <v>1.003838611951679</v>
+        <v>1.068098508466979</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9637178623989727</v>
+        <v>1.058939340828691</v>
       </c>
       <c r="D22">
-        <v>0.9759209395103523</v>
+        <v>1.062001179644496</v>
       </c>
       <c r="E22">
-        <v>0.9826216168236532</v>
+        <v>1.063796227755254</v>
       </c>
       <c r="F22">
-        <v>0.9872214142953432</v>
+        <v>1.071905216972483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032967970010884</v>
+        <v>1.042913737678878</v>
       </c>
       <c r="J22">
-        <v>0.9961374469184088</v>
+        <v>1.065601427433621</v>
       </c>
       <c r="K22">
-        <v>0.9919849901318201</v>
+        <v>1.065612531739378</v>
       </c>
       <c r="L22">
-        <v>0.9985453869236393</v>
+        <v>1.067401025284257</v>
       </c>
       <c r="M22">
-        <v>1.003050340167298</v>
+        <v>1.075480706768446</v>
       </c>
       <c r="N22">
-        <v>0.997552076351595</v>
+        <v>1.067114703686769</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9679793027001899</v>
+        <v>1.059590656553422</v>
       </c>
       <c r="D23">
-        <v>0.9798308436447595</v>
+        <v>1.062620383662864</v>
       </c>
       <c r="E23">
-        <v>0.9862689702808729</v>
+        <v>1.06437584500941</v>
       </c>
       <c r="F23">
-        <v>0.991040516840526</v>
+        <v>1.072515538969009</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034240815761499</v>
+        <v>1.043067603485855</v>
       </c>
       <c r="J23">
-        <v>0.9994957287665398</v>
+        <v>1.066122538867172</v>
       </c>
       <c r="K23">
-        <v>0.9954903743694272</v>
+        <v>1.066163143641838</v>
       </c>
       <c r="L23">
-        <v>1.001798191409529</v>
+        <v>1.067912328088151</v>
       </c>
       <c r="M23">
-        <v>1.00647459569389</v>
+        <v>1.07602321337407</v>
       </c>
       <c r="N23">
-        <v>1.000915127345151</v>
+        <v>1.067636555158327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9839478323165211</v>
+        <v>1.062148416172056</v>
       </c>
       <c r="D24">
-        <v>0.9945058384750616</v>
+        <v>1.065052515015018</v>
       </c>
       <c r="E24">
-        <v>0.9999657299869547</v>
+        <v>1.066652411337513</v>
       </c>
       <c r="F24">
-        <v>1.00538508045215</v>
+        <v>1.074913084888939</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038984795256185</v>
+        <v>1.043667660532001</v>
       </c>
       <c r="J24">
-        <v>1.012078113412778</v>
+        <v>1.068167137299557</v>
       </c>
       <c r="K24">
-        <v>1.008630129648521</v>
+        <v>1.06832422856547</v>
       </c>
       <c r="L24">
-        <v>1.013993447471708</v>
+        <v>1.06991887966932</v>
       </c>
       <c r="M24">
-        <v>1.01931828343427</v>
+        <v>1.078152742911454</v>
       </c>
       <c r="N24">
-        <v>1.013515380420806</v>
+        <v>1.069684057155005</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001059819349763</v>
+        <v>1.065103840898896</v>
       </c>
       <c r="D25">
-        <v>1.010271987494854</v>
+        <v>1.06786373701346</v>
       </c>
       <c r="E25">
-        <v>1.014692615651431</v>
+        <v>1.069283655083012</v>
       </c>
       <c r="F25">
-        <v>1.02081416066972</v>
+        <v>1.077684942046455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044011742052954</v>
+        <v>1.044352343790768</v>
       </c>
       <c r="J25">
-        <v>1.025551568910472</v>
+        <v>1.070525793652627</v>
       </c>
       <c r="K25">
-        <v>1.022712909703024</v>
+        <v>1.070818795072532</v>
       </c>
       <c r="L25">
-        <v>1.027067050241372</v>
+        <v>1.072234543838418</v>
       </c>
       <c r="M25">
-        <v>1.033097733039938</v>
+        <v>1.080611406477866</v>
       </c>
       <c r="N25">
-        <v>1.027007969770733</v>
+        <v>1.072046063070638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.067451379478658</v>
+        <v>1.0137687660183</v>
       </c>
       <c r="D2">
-        <v>1.070097477037803</v>
+        <v>1.022007495431323</v>
       </c>
       <c r="E2">
-        <v>1.071374243613339</v>
+        <v>1.025661649275036</v>
       </c>
       <c r="F2">
-        <v>1.07988788374424</v>
+        <v>1.032310690120389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044889200708512</v>
+        <v>1.047695887506092</v>
       </c>
       <c r="J2">
-        <v>1.072396211224438</v>
+        <v>1.035545312502815</v>
       </c>
       <c r="K2">
-        <v>1.072798223469824</v>
+        <v>1.033168514126461</v>
       </c>
       <c r="L2">
-        <v>1.074071586980101</v>
+        <v>1.036774688211698</v>
       </c>
       <c r="M2">
-        <v>1.082562757274905</v>
+        <v>1.043337515657454</v>
       </c>
       <c r="N2">
-        <v>1.073919136849941</v>
+        <v>1.037015905625277</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069150547657915</v>
+        <v>1.022532835717154</v>
       </c>
       <c r="D3">
-        <v>1.071714694440101</v>
+        <v>1.030112956146455</v>
       </c>
       <c r="E3">
-        <v>1.072887730851513</v>
+        <v>1.033240934814506</v>
       </c>
       <c r="F3">
-        <v>1.081483075558775</v>
+        <v>1.040257039164365</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045273718352527</v>
+        <v>1.050206253505126</v>
       </c>
       <c r="J3">
-        <v>1.073748229705646</v>
+        <v>1.042427527967759</v>
       </c>
       <c r="K3">
-        <v>1.074229755469942</v>
+        <v>1.040374505710996</v>
       </c>
       <c r="L3">
-        <v>1.075399894779469</v>
+        <v>1.043465449741264</v>
       </c>
       <c r="M3">
-        <v>1.083974217330171</v>
+        <v>1.050399486246266</v>
       </c>
       <c r="N3">
-        <v>1.075273075352471</v>
+        <v>1.043907894625581</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07024763503335</v>
+        <v>1.028011614598597</v>
       </c>
       <c r="D4">
-        <v>1.072759058058904</v>
+        <v>1.035185204455445</v>
       </c>
       <c r="E4">
-        <v>1.073865064770241</v>
+        <v>1.037985151079687</v>
       </c>
       <c r="F4">
-        <v>1.082513339489722</v>
+        <v>1.045232209747765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045520103889545</v>
+        <v>1.05176110545063</v>
       </c>
       <c r="J4">
-        <v>1.07462033758161</v>
+        <v>1.046724943298139</v>
       </c>
       <c r="K4">
-        <v>1.075153484243903</v>
+        <v>1.044876740643548</v>
       </c>
       <c r="L4">
-        <v>1.076256898880602</v>
+        <v>1.047645764903753</v>
       </c>
       <c r="M4">
-        <v>1.084885100977442</v>
+        <v>1.05481373141526</v>
       </c>
       <c r="N4">
-        <v>1.076146421721651</v>
+        <v>1.048211412778651</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070708291400247</v>
+        <v>1.030271852141762</v>
       </c>
       <c r="D5">
-        <v>1.073197620747663</v>
+        <v>1.037278888045233</v>
       </c>
       <c r="E5">
-        <v>1.074275468912099</v>
+        <v>1.039943696649004</v>
       </c>
       <c r="F5">
-        <v>1.082946010637905</v>
+        <v>1.047286386315286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045623107621272</v>
+        <v>1.05239900312114</v>
       </c>
       <c r="J5">
-        <v>1.074986326054988</v>
+        <v>1.048496553869474</v>
       </c>
       <c r="K5">
-        <v>1.075541215317997</v>
+        <v>1.046733424569593</v>
       </c>
       <c r="L5">
-        <v>1.076616594427477</v>
+        <v>1.049369671894506</v>
       </c>
       <c r="M5">
-        <v>1.085267465713584</v>
+        <v>1.056634582436033</v>
       </c>
       <c r="N5">
-        <v>1.076512929940641</v>
+        <v>1.049985539240204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07078560520406</v>
+        <v>1.030648912744581</v>
       </c>
       <c r="D6">
-        <v>1.073271229072656</v>
+        <v>1.037628229232119</v>
       </c>
       <c r="E6">
-        <v>1.074344350481441</v>
+        <v>1.040270504068919</v>
       </c>
       <c r="F6">
-        <v>1.083018631841976</v>
+        <v>1.047629167814554</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045640368676892</v>
+        <v>1.052505208701919</v>
       </c>
       <c r="J6">
-        <v>1.07504773955404</v>
+        <v>1.048792023637577</v>
       </c>
       <c r="K6">
-        <v>1.075606281921402</v>
+        <v>1.047043120388131</v>
       </c>
       <c r="L6">
-        <v>1.07667695462911</v>
+        <v>1.049657218791603</v>
       </c>
       <c r="M6">
-        <v>1.085331633252266</v>
+        <v>1.05693832729612</v>
       </c>
       <c r="N6">
-        <v>1.076574430653906</v>
+        <v>1.050281428609269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070253792526133</v>
+        <v>1.028041981426224</v>
       </c>
       <c r="D7">
-        <v>1.072764920056201</v>
+        <v>1.035213329115638</v>
       </c>
       <c r="E7">
-        <v>1.073870550431478</v>
+        <v>1.038011459410879</v>
       </c>
       <c r="F7">
-        <v>1.08251912262331</v>
+        <v>1.045259801514968</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045521482492013</v>
+        <v>1.051769689902224</v>
       </c>
       <c r="J7">
-        <v>1.074625230460864</v>
+        <v>1.04674875040552</v>
       </c>
       <c r="K7">
-        <v>1.075158667486516</v>
+        <v>1.044901688452449</v>
       </c>
       <c r="L7">
-        <v>1.07626170745125</v>
+        <v>1.047668928722734</v>
       </c>
       <c r="M7">
-        <v>1.084890212382729</v>
+        <v>1.054838195981258</v>
       </c>
       <c r="N7">
-        <v>1.076151321549355</v>
+        <v>1.048235253694856</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068026123358762</v>
+        <v>1.016772292527867</v>
       </c>
       <c r="D8">
-        <v>1.070644461529055</v>
+        <v>1.024784154317921</v>
       </c>
       <c r="E8">
-        <v>1.071886152658066</v>
+        <v>1.02825777501095</v>
       </c>
       <c r="F8">
-        <v>1.080427392738543</v>
+        <v>1.035032293712459</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045019653985815</v>
+        <v>1.048559231752419</v>
       </c>
       <c r="J8">
-        <v>1.072853705217672</v>
+        <v>1.037904906192135</v>
       </c>
       <c r="K8">
-        <v>1.073282554399747</v>
+        <v>1.035638555895992</v>
       </c>
       <c r="L8">
-        <v>1.074521018171667</v>
+        <v>1.039068111828247</v>
       </c>
       <c r="M8">
-        <v>1.083040274980436</v>
+        <v>1.045757752194639</v>
       </c>
       <c r="N8">
-        <v>1.074377280537121</v>
+        <v>1.039378850208285</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064081831432633</v>
+        <v>0.9952909280770122</v>
       </c>
       <c r="D9">
-        <v>1.0668914768118</v>
+        <v>1.004952249997061</v>
       </c>
       <c r="E9">
-        <v>1.068373661969892</v>
+        <v>1.009722265211231</v>
       </c>
       <c r="F9">
-        <v>1.076726220884538</v>
+        <v>1.015606098479744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044116659085397</v>
+        <v>1.04232468420744</v>
       </c>
       <c r="J9">
-        <v>1.069710630851688</v>
+        <v>1.02101107877647</v>
       </c>
       <c r="K9">
-        <v>1.069956469618079</v>
+        <v>1.017965488144052</v>
       </c>
       <c r="L9">
-        <v>1.071434127464825</v>
+        <v>1.022659550496514</v>
       </c>
       <c r="M9">
-        <v>1.079761427591186</v>
+        <v>1.028450952077206</v>
       </c>
       <c r="N9">
-        <v>1.071229742645022</v>
+        <v>1.02246103161994</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.061438834366485</v>
+        <v>0.9796336585709902</v>
       </c>
       <c r="D10">
-        <v>1.064377708906285</v>
+        <v>0.9905374914590831</v>
       </c>
       <c r="E10">
-        <v>1.066020779956245</v>
+        <v>0.9962608284998065</v>
       </c>
       <c r="F10">
-        <v>1.074247826079461</v>
+        <v>1.001504485653834</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043501870772763</v>
+        <v>1.037707537016103</v>
       </c>
       <c r="J10">
-        <v>1.067600217765132</v>
+        <v>1.008679290525826</v>
       </c>
       <c r="K10">
-        <v>1.067724889738581</v>
+        <v>1.005079722353184</v>
       </c>
       <c r="L10">
-        <v>1.069362438726926</v>
+        <v>1.01069792463408</v>
       </c>
       <c r="M10">
-        <v>1.077562113978871</v>
+        <v>1.015846629175013</v>
       </c>
       <c r="N10">
-        <v>1.069116332529815</v>
+        <v>1.010111730815505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.060291015499069</v>
+        <v>0.9724695708346808</v>
       </c>
       <c r="D11">
-        <v>1.063286267698655</v>
+        <v>0.9839536176465056</v>
       </c>
       <c r="E11">
-        <v>1.0649991496226</v>
+        <v>0.9901157931765718</v>
       </c>
       <c r="F11">
-        <v>1.073171905976363</v>
+        <v>0.9950688138155755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043232578723023</v>
+        <v>1.035579120942097</v>
       </c>
       <c r="J11">
-        <v>1.066682679933749</v>
+        <v>1.003034255005538</v>
       </c>
       <c r="K11">
-        <v>1.06675507905504</v>
+        <v>0.9991846252598778</v>
       </c>
       <c r="L11">
-        <v>1.068461975871185</v>
+        <v>1.005226549859555</v>
       </c>
       <c r="M11">
-        <v>1.076606464625009</v>
+        <v>1.010084328124317</v>
       </c>
       <c r="N11">
-        <v>1.068197491689467</v>
+        <v>1.004458678697283</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059864140742476</v>
+        <v>0.9697438255273997</v>
       </c>
       <c r="D12">
-        <v>1.062880398928602</v>
+        <v>0.9814505985490897</v>
       </c>
       <c r="E12">
-        <v>1.064619234851172</v>
+        <v>0.9877802014456234</v>
       </c>
       <c r="F12">
-        <v>1.072771833735838</v>
+        <v>0.9926229989744578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043132084034106</v>
+        <v>1.034767092056852</v>
       </c>
       <c r="J12">
-        <v>1.066341295166106</v>
+        <v>1.00088626833281</v>
       </c>
       <c r="K12">
-        <v>1.066394306366006</v>
+        <v>0.9969420184188568</v>
       </c>
       <c r="L12">
-        <v>1.06812698016658</v>
+        <v>1.003145318804391</v>
       </c>
       <c r="M12">
-        <v>1.076250981114761</v>
+        <v>1.007892908649402</v>
       </c>
       <c r="N12">
-        <v>1.067855622116298</v>
+        <v>1.002307641637103</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059955730774659</v>
+        <v>0.970331558679747</v>
       </c>
       <c r="D13">
-        <v>1.062967480146158</v>
+        <v>0.9819902142219057</v>
       </c>
       <c r="E13">
-        <v>1.06470074778236</v>
+        <v>0.9882836940190329</v>
       </c>
       <c r="F13">
-        <v>1.072857670151978</v>
+        <v>0.9931502418604368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043153661715203</v>
+        <v>1.034942281671939</v>
       </c>
       <c r="J13">
-        <v>1.066414549365351</v>
+        <v>1.001349429308338</v>
       </c>
       <c r="K13">
-        <v>1.066471718056281</v>
+        <v>0.9974255579977424</v>
       </c>
       <c r="L13">
-        <v>1.068198861770358</v>
+        <v>1.003594054306067</v>
       </c>
       <c r="M13">
-        <v>1.076327256936279</v>
+        <v>1.008365380183073</v>
       </c>
       <c r="N13">
-        <v>1.067928980344908</v>
+        <v>1.00277146035434</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.060255740671729</v>
+        <v>0.9722456237789127</v>
       </c>
       <c r="D14">
-        <v>1.063252727901081</v>
+        <v>0.9837479285437076</v>
       </c>
       <c r="E14">
-        <v>1.064967754711996</v>
+        <v>0.9899238501606289</v>
       </c>
       <c r="F14">
-        <v>1.073138844679698</v>
+        <v>0.9948678075751453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043224281364674</v>
+        <v>1.035512448752573</v>
       </c>
       <c r="J14">
-        <v>1.066654472668764</v>
+        <v>1.002857779476367</v>
       </c>
       <c r="K14">
-        <v>1.066725268598931</v>
+        <v>0.9990003651313334</v>
       </c>
       <c r="L14">
-        <v>1.068434295773319</v>
+        <v>1.005055544919792</v>
       </c>
       <c r="M14">
-        <v>1.076577090778879</v>
+        <v>1.009904259782206</v>
       </c>
       <c r="N14">
-        <v>1.068169244366932</v>
+        <v>1.004281952552619</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060440516810347</v>
+        <v>0.9734161435244125</v>
       </c>
       <c r="D15">
-        <v>1.06342841723402</v>
+        <v>0.984823099411132</v>
       </c>
       <c r="E15">
-        <v>1.065132208370635</v>
+        <v>0.9909271924937384</v>
       </c>
       <c r="F15">
-        <v>1.073312028528672</v>
+        <v>0.9959185358371079</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04326773036939</v>
+        <v>1.035860839758351</v>
       </c>
       <c r="J15">
-        <v>1.066802221387935</v>
+        <v>1.003780169493954</v>
       </c>
       <c r="K15">
-        <v>1.066881417277842</v>
+        <v>0.999963464666375</v>
       </c>
       <c r="L15">
-        <v>1.068579284684509</v>
+        <v>1.005949369332159</v>
       </c>
       <c r="M15">
-        <v>1.076730953338428</v>
+        <v>1.010845477025685</v>
       </c>
       <c r="N15">
-        <v>1.06831720290623</v>
+        <v>1.00520565246983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06151493872634</v>
+        <v>0.9801004512712727</v>
       </c>
       <c r="D16">
-        <v>1.064450080666139</v>
+        <v>0.9909667369664763</v>
       </c>
       <c r="E16">
-        <v>1.066088521778084</v>
+        <v>0.9966615400075448</v>
       </c>
       <c r="F16">
-        <v>1.074319172110873</v>
+        <v>1.001924182323326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043519677451929</v>
+        <v>1.03784590551721</v>
       </c>
       <c r="J16">
-        <v>1.067661032417341</v>
+        <v>1.009047068050692</v>
       </c>
       <c r="K16">
-        <v>1.067789177596973</v>
+        <v>1.005463864239972</v>
       </c>
       <c r="L16">
-        <v>1.069422126683423</v>
+        <v>1.01105447828854</v>
       </c>
       <c r="M16">
-        <v>1.07762546603936</v>
+        <v>1.016222205884394</v>
       </c>
       <c r="N16">
-        <v>1.069177233545806</v>
+        <v>1.01048003062664</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06218797850155</v>
+        <v>0.9841858882517561</v>
       </c>
       <c r="D17">
-        <v>1.065090140182921</v>
+        <v>0.9947248891716935</v>
       </c>
       <c r="E17">
-        <v>1.066687628916396</v>
+        <v>1.00017026125318</v>
       </c>
       <c r="F17">
-        <v>1.074950178835594</v>
+        <v>1.00559932157573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043676888402646</v>
+        <v>1.03905516954004</v>
       </c>
       <c r="J17">
-        <v>1.06819873867733</v>
+        <v>1.012265643439188</v>
       </c>
       <c r="K17">
-        <v>1.068357639833858</v>
+        <v>1.008826046722284</v>
       </c>
       <c r="L17">
-        <v>1.069949898572486</v>
+        <v>1.014175305831442</v>
       </c>
       <c r="M17">
-        <v>1.078185669575975</v>
+        <v>1.019509881548924</v>
       </c>
       <c r="N17">
-        <v>1.069715703410359</v>
+        <v>1.013703176761364</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062580225783435</v>
+        <v>0.9865322919647532</v>
       </c>
       <c r="D18">
-        <v>1.065463191107527</v>
+        <v>0.9968843983932415</v>
       </c>
       <c r="E18">
-        <v>1.067036807040591</v>
+        <v>1.002186755646688</v>
       </c>
       <c r="F18">
-        <v>1.075317969092509</v>
+        <v>1.007711607221316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043768289552184</v>
+        <v>1.039748204459362</v>
       </c>
       <c r="J18">
-        <v>1.068512016026414</v>
+        <v>1.014113929086987</v>
       </c>
       <c r="K18">
-        <v>1.068688875294423</v>
+        <v>1.01075712876888</v>
       </c>
       <c r="L18">
-        <v>1.070257410964056</v>
+        <v>1.015967849296926</v>
       </c>
       <c r="M18">
-        <v>1.078512106156795</v>
+        <v>1.021398542825834</v>
       </c>
       <c r="N18">
-        <v>1.070029425649213</v>
+        <v>1.015554087186784</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062713917233339</v>
+        <v>0.9873263454135296</v>
       </c>
       <c r="D19">
-        <v>1.065590343910984</v>
+        <v>0.9976153811129941</v>
       </c>
       <c r="E19">
-        <v>1.067155822180567</v>
+        <v>1.00286937956414</v>
       </c>
       <c r="F19">
-        <v>1.075443331462884</v>
+        <v>1.00842668370063</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043799404674626</v>
+        <v>1.039982480243025</v>
       </c>
       <c r="J19">
-        <v>1.068618775216617</v>
+        <v>1.014739365554724</v>
       </c>
       <c r="K19">
-        <v>1.068801760917797</v>
+        <v>1.011410638324635</v>
       </c>
       <c r="L19">
-        <v>1.070362209456493</v>
+        <v>1.016574488329661</v>
       </c>
       <c r="M19">
-        <v>1.078623358571446</v>
+        <v>1.022037758009466</v>
       </c>
       <c r="N19">
-        <v>1.070136336449711</v>
+        <v>1.016180411846044</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062115801475197</v>
+        <v>0.9837513877743637</v>
       </c>
       <c r="D20">
-        <v>1.065021497428497</v>
+        <v>0.9943250832000267</v>
       </c>
       <c r="E20">
-        <v>1.066623378505117</v>
+        <v>0.9997969575578118</v>
       </c>
       <c r="F20">
-        <v>1.074882505320886</v>
+        <v>1.005208296617349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043660051940885</v>
+        <v>1.038926713708951</v>
       </c>
       <c r="J20">
-        <v>1.068141084962549</v>
+        <v>1.011923361572227</v>
       </c>
       <c r="K20">
-        <v>1.068296684366106</v>
+        <v>1.008468458593161</v>
       </c>
       <c r="L20">
-        <v>1.069893307656983</v>
+        <v>1.013843378162011</v>
       </c>
       <c r="M20">
-        <v>1.078125598294086</v>
+        <v>1.019160178496852</v>
       </c>
       <c r="N20">
-        <v>1.069657967820691</v>
+        <v>1.013360408814891</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.060167409816035</v>
+        <v>0.9716838265965646</v>
       </c>
       <c r="D21">
-        <v>1.063168742326012</v>
+        <v>0.9832319659734452</v>
       </c>
       <c r="E21">
-        <v>1.064889139957385</v>
+        <v>0.9894423788825989</v>
       </c>
       <c r="F21">
-        <v>1.073056057699602</v>
+        <v>0.9943636059199621</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043203498580908</v>
+        <v>1.035345158684597</v>
       </c>
       <c r="J21">
-        <v>1.06658383707945</v>
+        <v>1.002415067577104</v>
       </c>
       <c r="K21">
-        <v>1.066650619343238</v>
+        <v>0.9985381330685079</v>
       </c>
       <c r="L21">
-        <v>1.06836498087892</v>
+        <v>1.004626567723427</v>
       </c>
       <c r="M21">
-        <v>1.076503535193198</v>
+        <v>1.009452554144954</v>
       </c>
       <c r="N21">
-        <v>1.068098508466979</v>
+        <v>1.003838611951679</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058939340828691</v>
+        <v>0.9637178623989732</v>
       </c>
       <c r="D22">
-        <v>1.062001179644496</v>
+        <v>0.9759209395103531</v>
       </c>
       <c r="E22">
-        <v>1.063796227755254</v>
+        <v>0.982621616823654</v>
       </c>
       <c r="F22">
-        <v>1.071905216972483</v>
+        <v>0.9872214142953438</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042913737678878</v>
+        <v>1.032967970010884</v>
       </c>
       <c r="J22">
-        <v>1.065601427433621</v>
+        <v>0.9961374469184096</v>
       </c>
       <c r="K22">
-        <v>1.065612531739378</v>
+        <v>0.9919849901318207</v>
       </c>
       <c r="L22">
-        <v>1.067401025284257</v>
+        <v>0.9985453869236398</v>
       </c>
       <c r="M22">
-        <v>1.075480706768446</v>
+        <v>1.003050340167298</v>
       </c>
       <c r="N22">
-        <v>1.067114703686769</v>
+        <v>0.9975520763515957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.059590656553422</v>
+        <v>0.9679793027001925</v>
       </c>
       <c r="D23">
-        <v>1.062620383662864</v>
+        <v>0.9798308436447624</v>
       </c>
       <c r="E23">
-        <v>1.06437584500941</v>
+        <v>0.9862689702808751</v>
       </c>
       <c r="F23">
-        <v>1.072515538969009</v>
+        <v>0.9910405168405284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043067603485855</v>
+        <v>1.0342408157615</v>
       </c>
       <c r="J23">
-        <v>1.066122538867172</v>
+        <v>0.9994957287665424</v>
       </c>
       <c r="K23">
-        <v>1.066163143641838</v>
+        <v>0.9954903743694299</v>
       </c>
       <c r="L23">
-        <v>1.067912328088151</v>
+        <v>1.001798191409531</v>
       </c>
       <c r="M23">
-        <v>1.07602321337407</v>
+        <v>1.006474595693893</v>
       </c>
       <c r="N23">
-        <v>1.067636555158327</v>
+        <v>1.000915127345153</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062148416172056</v>
+        <v>0.9839478323165203</v>
       </c>
       <c r="D24">
-        <v>1.065052515015018</v>
+        <v>0.9945058384750608</v>
       </c>
       <c r="E24">
-        <v>1.066652411337513</v>
+        <v>0.9999657299869539</v>
       </c>
       <c r="F24">
-        <v>1.074913084888939</v>
+        <v>1.00538508045215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043667660532001</v>
+        <v>1.038984795256185</v>
       </c>
       <c r="J24">
-        <v>1.068167137299557</v>
+        <v>1.012078113412777</v>
       </c>
       <c r="K24">
-        <v>1.06832422856547</v>
+        <v>1.00863012964852</v>
       </c>
       <c r="L24">
-        <v>1.06991887966932</v>
+        <v>1.013993447471708</v>
       </c>
       <c r="M24">
-        <v>1.078152742911454</v>
+        <v>1.019318283434269</v>
       </c>
       <c r="N24">
-        <v>1.069684057155005</v>
+        <v>1.013515380420805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065103840898896</v>
+        <v>1.001059819349763</v>
       </c>
       <c r="D25">
-        <v>1.06786373701346</v>
+        <v>1.010271987494854</v>
       </c>
       <c r="E25">
-        <v>1.069283655083012</v>
+        <v>1.014692615651431</v>
       </c>
       <c r="F25">
-        <v>1.077684942046455</v>
+        <v>1.02081416066972</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044352343790768</v>
+        <v>1.044011742052954</v>
       </c>
       <c r="J25">
-        <v>1.070525793652627</v>
+        <v>1.025551568910472</v>
       </c>
       <c r="K25">
-        <v>1.070818795072532</v>
+        <v>1.022712909703025</v>
       </c>
       <c r="L25">
-        <v>1.072234543838418</v>
+        <v>1.027067050241373</v>
       </c>
       <c r="M25">
-        <v>1.080611406477866</v>
+        <v>1.033097733039938</v>
       </c>
       <c r="N25">
-        <v>1.072046063070638</v>
+        <v>1.027007969770733</v>
       </c>
     </row>
   </sheetData>
